--- a/biology/Zoologie/Gonocerus_acuteangulatus/Gonocerus_acuteangulatus.xlsx
+++ b/biology/Zoologie/Gonocerus_acuteangulatus/Gonocerus_acuteangulatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gonocerus acuteangulatus est une espèce d'insectes hétéroptères (punaises) de la famille des Coreidae, de la sous-famille des Coreinae et du genre Gonocerus.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Punaise relativement large, brun rougeâtre, qui se distingue de l’espèce Coreus marginatus par l'abdomen étroit et les extrémités latérales plus pointues du pronotum. Les nymphes ont un abdomen vert.
 Longueur de l’adulte : 11-14 mm
@@ -549,7 +563,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Gonocerus acuteangulatus est présente en Europe méridionale et centrale et jusqu'en Asie centrale.
 </t>
@@ -580,10 +596,12 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le buis est la plante-hôte la plus couramment citée, mais divers auteurs la décrivent sur de nombreux autres végétaux de diverses familles. Elle en consomme préférentiellement les fruits[1],[2]. G. acuteangulatus est connu pour être un ravageur secondaire dans plusieurs pays d'Europe[3]. En France, l'insecte s'attaque aux pommes, poires et noisettes[4].
-Les imagos hivernent. L'accouplement a lieu en mai, les pontes s'échelonnent durant le mois de juin. Les premiers juvéniles éclosent en juin et les premiers imagos de la nouvelle génération dès la mi-août. L'espèce est univoltine[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le buis est la plante-hôte la plus couramment citée, mais divers auteurs la décrivent sur de nombreux autres végétaux de diverses familles. Elle en consomme préférentiellement les fruits,. G. acuteangulatus est connu pour être un ravageur secondaire dans plusieurs pays d'Europe. En France, l'insecte s'attaque aux pommes, poires et noisettes.
+Les imagos hivernent. L'accouplement a lieu en mai, les pontes s'échelonnent durant le mois de juin. Les premiers juvéniles éclosent en juin et les premiers imagos de la nouvelle génération dès la mi-août. L'espèce est univoltine.
 </t>
         </is>
       </c>
@@ -612,27 +630,64 @@
           <t>Historique de la classification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce Gonocerus acuteangulatus a été décrite par l'entomologiste allemand Johann August Ephraim Goeze en 1778[5] sous le nom initial de Cimex acuteangulatus.
-Synonymie
-Liste des synonymes :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Gonocerus acuteangulatus a été décrite par l'entomologiste allemand Johann August Ephraim Goeze en 1778 sous le nom initial de Cimex acuteangulatus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gonocerus_acuteangulatus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gonocerus_acuteangulatus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Historique de la classification</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Liste des synonymes :
 Cimex acuteangulatus  Goeze, 1778 Protonyme
 Gonocerus luteus (Goeze, 1778)
-Cimex luteus Goeze, 1778 Protonyme[6]
+Cimex luteus Goeze, 1778 Protonyme
 Gonocerus acutus (Geoffroy, 1785)
-Cimex acutus Geoffroy, 1785 Protonyme[7]
+Cimex acutus Geoffroy, 1785 Protonyme
 Gonocerus ictericus (Villers, 1789)
-Cimex ictericus Villers, 1789 Protonyme[8]
-Gonocerus acutangulus (Gmelin, 1790)[9]
+Cimex ictericus Villers, 1789 Protonyme
+Gonocerus acutangulus (Gmelin, 1790)
 Gonocerus cinnameus (Millet de Turtaudière, 1872)
-Syromastes cinnameus Millet de Turtaudière, 1872 Protonyme[10]
+Syromastes cinnameus Millet de Turtaudière, 1872 Protonyme
 Gonocerus crudus (Newman, 1838)
-Coreus crudus Newman, 1838 Protonyme[11]
+Coreus crudus Newman, 1838 Protonyme
 Gonocerus venator (Fabricius, 1794)
-Coreus venator Fabricius, 1794 Protonyme[12]
-Gonocerus acutangulatus Reuter, 1891[13]
-Gonocerus acutangulatus var. simulator Reuter, 1891[13]</t>
+Coreus venator Fabricius, 1794 Protonyme
+Gonocerus acutangulatus Reuter, 1891
+Gonocerus acutangulatus var. simulator Reuter, 1891</t>
         </is>
       </c>
     </row>
